--- a/medicine/Sexualité et sexologie/La_Sexualité/La_Sexualité.xlsx
+++ b/medicine/Sexualité et sexologie/La_Sexualité/La_Sexualité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Sexualit%C3%A9</t>
+          <t>La_Sexualité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sexualité est un roman policier écrit par Frédéric Dard, sous le nom d'auteur fictif San Antonio, également héros du livre et la série éponyme, et publié en 1971.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Sexualit%C3%A9</t>
+          <t>La_Sexualité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Début du roman
-Les polices anglaise, belge, allemande, suisse, italienne et française doivent coopérer pour résoudre une mystérieuse épidémie qui frappe les grands de ce monde[évasif] et les rend impuissants.
-Aventures
-San-Antonio, Bérurier et la marquise de la Lune se rendent tout d'abord au Royaume-Uni où le premier découvre rapidement que la source de cette épidémie est une pile au couillognum placée dans les sièges des victimes. Bérurier, lui, découvre que sa femme Berthe a le don miraculeux de rendre leur virilité aux victimes.
+          <t>Début du roman</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les polices anglaise, belge, allemande, suisse, italienne et française doivent coopérer pour résoudre une mystérieuse épidémie qui frappe les grands de ce monde[évasif] et les rend impuissants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>La_Sexualité</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aventures</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San-Antonio, Bérurier et la marquise de la Lune se rendent tout d'abord au Royaume-Uni où le premier découvre rapidement que la source de cette épidémie est une pile au couillognum placée dans les sièges des victimes. Bérurier, lui, découvre que sa femme Berthe a le don miraculeux de rendre leur virilité aux victimes.
 L'équipe se rend ensuite dans chacun des pays concernés où certaines victimes n'ont pas retrouvé la pile incriminée : comme il a fallu utiliser pour eux des méthodes différentes, on peut espérer trouver une piste.
-Fin du roman
-L'enquête finit par révéler que la Mafia sicilienne est à l'origine de ce coup. En faisant pression sur l'un des chefs, la vie de San-Antonio est épargnée, mais l'omerta menace l'aboutissement de l'enquête.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_Sexualité</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fin du roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enquête finit par révéler que la Mafia sicilienne est à l'origine de ce coup. En faisant pression sur l'un des chefs, la vie de San-Antonio est épargnée, mais l'omerta menace l'aboutissement de l'enquête.
 </t>
         </is>
       </c>
